--- a/biology/Botanique/Terminalia_myriocarpa/Terminalia_myriocarpa.xlsx
+++ b/biology/Botanique/Terminalia_myriocarpa/Terminalia_myriocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia myriocarpa  est une espèce d’arbre tropical de la famille des Combretaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Myrohakunis myriocarpa Kuntze (1891).</t>
         </is>
@@ -541,15 +555,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anglais: East Indian almond
-Description
-Grand arbre à feuilles persistantes pouvant atteindre 45 m de haut[2].
-Jeunes rameaux tomenteux parfois rapidement glabres.
-Feuilles subopposées, dans un premier temps tomenteuses un peu pubescentes, souvent glabrescentes à maturité, de forme oblongue, oblongue-elliptique ou oblongue-lancéolée, de 2 × 8 cm  à 8 × 20 cm, pointues à l'apex, arrondies ou sub cordées à la base; jusqu'à 20-30 paires de nervures; pétiole tomenteux, souvent glabres, relativement court et d'épaisseur, 3-4 (-7) mm, souvent 1 ou 2 glandes bien visibles au sommet du pétiole ou à la base de la lame.
-Fleurs petites, sessiles, nombreuses, protogyne, en grand panicules terminaux tomenteux de couleur fauve; bourgeons subglobuleux, presque glabres vers le sommet. Réceptacle inférieur (Ovaire) soyeux, 1 mm de long; prise supérieure presque glabre, cupuliforme, 0,8 par 0,8 mm.
-Fruits soyeux, corps comprimé ellipsoïde ou triangulaire 2 mm[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anglais: East Indian almond</t>
         </is>
       </c>
     </row>
@@ -574,10 +584,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grand arbre à feuilles persistantes pouvant atteindre 45 m de haut.
+Jeunes rameaux tomenteux parfois rapidement glabres.
+Feuilles subopposées, dans un premier temps tomenteuses un peu pubescentes, souvent glabrescentes à maturité, de forme oblongue, oblongue-elliptique ou oblongue-lancéolée, de 2 × 8 cm  à 8 × 20 cm, pointues à l'apex, arrondies ou sub cordées à la base; jusqu'à 20-30 paires de nervures; pétiole tomenteux, souvent glabres, relativement court et d'épaisseur, 3-4 (-7) mm, souvent 1 ou 2 glandes bien visibles au sommet du pétiole ou à la base de la lame.
+Fleurs petites, sessiles, nombreuses, protogyne, en grand panicules terminaux tomenteux de couleur fauve; bourgeons subglobuleux, presque glabres vers le sommet. Réceptacle inférieur (Ovaire) soyeux, 1 mm de long; prise supérieure presque glabre, cupuliforme, 0,8 par 0,8 mm.
+Fruits soyeux, corps comprimé ellipsoïde ou triangulaire 2 mm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terminalia_myriocarpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia_myriocarpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts primaires, de 1000-2000 m, d'Inde (Sikkim, Assam), la Haute-Birmanie, Chine (Yunnan), l'Indo-Chine, Malaisie, Nord Sumatra.
 Terminalia myriocarpa a été introduit aux Antilles;
